--- a/tests/outputs/Formatf.xlsx
+++ b/tests/outputs/Formatf.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Blätt1" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,15 +20,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt formatCode="dd/mm/yyyy" numFmtId="164"/>
-    <numFmt formatCode="yyyy-mm-dd" numFmtId="165"/>
-    <numFmt formatCode="0.000000" numFmtId="166"/>
-    <numFmt formatCode="dddd&quot;, &quot;mmmm\ dd&quot;, &quot;yyyy" numFmtId="167"/>
-    <numFmt formatCode="hh\:mm" numFmtId="168"/>
-    <numFmt formatCode="h\:mm\:ss AM/PM" numFmtId="169"/>
-    <numFmt formatCode="0.0%" numFmtId="170"/>
-    <numFmt formatCode="_-* #,##0.00&quot; €&quot;_-;\-* #,##0.00&quot; €&quot;_-;_-* \-??&quot; €&quot;_-;_-\@_-" numFmtId="171"/>
-    <numFmt formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* \-??\ [$€-407]_-;_-\@_-" numFmtId="172"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="dddd&quot;, &quot;mmmm\ dd&quot;, &quot;yyyy"/>
+    <numFmt numFmtId="168" formatCode="hh\:mm"/>
+    <numFmt numFmtId="169" formatCode="h\:mm\:ss AM/PM"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="171" formatCode="_-* #,##0.00&quot; €&quot;_-;\-* #,##0.00&quot; €&quot;_-;_-* \-??&quot; €&quot;_-;_-\@_-"/>
+    <numFmt numFmtId="172" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* \-??\ [$€-407]_-;_-\@_-"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -89,7 +89,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -110,149 +110,140 @@
       <bottom>
         <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top>
-        <color rgb="00000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color rgb="00000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right>
-        <color rgb="00000000"/>
-      </right>
-      <top>
-        <color rgb="00000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right>
-        <color rgb="00000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color rgb="00000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom>
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom>
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right>
-        <color rgb="00000000"/>
-      </right>
-      <top/>
-      <bottom>
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="169" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="170" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="171" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="172" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -268,7 +259,7 @@
     <ext cx="4581525" cy="2752725"/>
     <pic>
       <nvPicPr>
-        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
@@ -583,12 +574,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="12.13857142857143"/>
-    <col customWidth="1" max="2" min="2" width="23.42428571428572"/>
-    <col customWidth="1" max="3" min="3" width="12.13857142857143"/>
+    <col width="12.13857142857143" customWidth="1" min="1" max="1"/>
+    <col width="23.42428571428572" customWidth="1" min="2" max="2"/>
+    <col width="12.13857142857143" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15" r="1">
+    <row r="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Huber</t>
@@ -599,7 +590,7 @@
       </c>
       <c r="C1" s="3" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="2">
+    <row r="2" ht="15" customHeight="1">
       <c r="A2" s="4" t="inlineStr">
         <is>
           <t>Äcker</t>
@@ -610,7 +601,7 @@
       </c>
       <c r="C2" s="3" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="3">
+    <row r="3" ht="15" customHeight="1">
       <c r="A3" s="4" t="inlineStr">
         <is>
           <t>Öcker</t>
@@ -621,7 +612,7 @@
       </c>
       <c r="C3" s="3" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="4">
+    <row r="4" ht="15" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
         <is>
           <t>Morgen</t>
@@ -632,7 +623,7 @@
       </c>
       <c r="C4" s="3" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="5">
+    <row r="5" ht="15" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
         <is>
           <t>Mittag</t>
@@ -643,7 +634,7 @@
       </c>
       <c r="C5" s="3" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="6">
+    <row r="6" ht="15" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
         <is>
           <t>Abends</t>
@@ -654,7 +645,7 @@
       </c>
       <c r="C6" s="3" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="7">
+    <row r="7" ht="15" customHeight="1">
       <c r="A7" s="4" t="inlineStr">
         <is>
           <t>gut</t>
@@ -665,7 +656,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="8">
+    <row r="8" ht="15" customHeight="1">
       <c r="A8" s="4" t="inlineStr">
         <is>
           <t>schlecht</t>
@@ -676,7 +667,7 @@
       </c>
       <c r="C8" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="9">
+    <row r="9" ht="15" customHeight="1">
       <c r="A9" s="4" t="inlineStr">
         <is>
           <t>viel</t>
@@ -687,7 +678,7 @@
       </c>
       <c r="C9" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="10">
+    <row r="10" ht="15" customHeight="1">
       <c r="A10" s="4" t="inlineStr">
         <is>
           <t>wenig</t>
@@ -699,7 +690,7 @@
       <c r="C10" s="4" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -717,14 +708,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="12.13857142857143"/>
-    <col customWidth="1" max="2" min="2" width="12.13857142857143"/>
-    <col customWidth="1" max="3" min="3" width="12.13857142857143"/>
-    <col customWidth="1" max="4" min="4" width="12.13857142857143"/>
-    <col customWidth="1" max="5" min="5" width="12.13857142857143"/>
+    <col width="12.13857142857143" customWidth="1" min="1" max="1"/>
+    <col width="12.13857142857143" customWidth="1" min="2" max="2"/>
+    <col width="12.13857142857143" customWidth="1" min="3" max="3"/>
+    <col width="12.13857142857143" customWidth="1" min="4" max="4"/>
+    <col width="12.13857142857143" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15" r="1">
+    <row r="1" ht="15" customHeight="1">
       <c r="A1" s="11" t="n">
         <v>-100</v>
       </c>
@@ -733,14 +724,14 @@
       <c r="D1" s="12" t="inlineStr"/>
       <c r="E1" s="12" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="2">
+    <row r="2" ht="15" customHeight="1">
       <c r="A2" s="4" t="inlineStr"/>
       <c r="B2" s="4" t="inlineStr"/>
       <c r="C2" s="12" t="inlineStr"/>
       <c r="D2" s="12" t="inlineStr"/>
       <c r="E2" s="12" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="3">
+    <row r="3" ht="15" customHeight="1">
       <c r="A3" s="4" t="inlineStr"/>
       <c r="B3" s="4" t="inlineStr"/>
       <c r="C3" s="12" t="inlineStr">
@@ -748,27 +739,20 @@
           <t>MERGED CELLS</t>
         </is>
       </c>
-      <c r="D3" s="13" t="n"/>
-      <c r="E3" s="14" t="n"/>
-    </row>
-    <row customHeight="1" ht="15" r="4">
+    </row>
+    <row r="4" ht="15" customHeight="1">
       <c r="A4" s="4" t="inlineStr"/>
       <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="15" t="n"/>
-      <c r="E4" s="16" t="n"/>
-    </row>
-    <row customHeight="1" ht="15" r="5">
+    </row>
+    <row r="5" ht="15" customHeight="1">
       <c r="A5" s="4" t="inlineStr"/>
       <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="17" t="n"/>
-      <c r="D5" s="18" t="n"/>
-      <c r="E5" s="19" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C3:E5"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -786,18 +770,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="12.13857142857143"/>
-    <col customWidth="1" max="2" min="2" width="12.13857142857143"/>
-    <col customWidth="1" max="3" min="3" width="12.13857142857143"/>
-    <col customWidth="1" max="4" min="4" width="12.13857142857143"/>
-    <col customWidth="1" max="5" min="5" width="12.13857142857143"/>
-    <col customWidth="1" max="6" min="6" width="12.13857142857143"/>
-    <col customWidth="1" max="7" min="7" width="12.13857142857143"/>
-    <col customWidth="1" max="8" min="8" width="12.13857142857143"/>
-    <col customWidth="1" max="9" min="9" width="12.13857142857143"/>
+    <col width="12.13857142857143" customWidth="1" min="1" max="1"/>
+    <col width="12.13857142857143" customWidth="1" min="2" max="2"/>
+    <col width="12.13857142857143" customWidth="1" min="3" max="3"/>
+    <col width="12.13857142857143" customWidth="1" min="4" max="4"/>
+    <col width="12.13857142857143" customWidth="1" min="5" max="5"/>
+    <col width="12.13857142857143" customWidth="1" min="6" max="6"/>
+    <col width="12.13857142857143" customWidth="1" min="7" max="7"/>
+    <col width="12.13857142857143" customWidth="1" min="8" max="8"/>
+    <col width="12.13857142857143" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15" r="1">
+    <row r="1" ht="15" customHeight="1">
       <c r="A1" s="11" t="n">
         <v>100</v>
       </c>
@@ -810,7 +794,7 @@
       <c r="H1" s="4" t="inlineStr"/>
       <c r="I1" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="2">
+    <row r="2" ht="15" customHeight="1">
       <c r="A2" s="11" t="n">
         <v>200</v>
       </c>
@@ -823,7 +807,7 @@
       <c r="H2" s="4" t="inlineStr"/>
       <c r="I2" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="3">
+    <row r="3" ht="15" customHeight="1">
       <c r="A3" s="11" t="n">
         <v>300</v>
       </c>
@@ -836,7 +820,7 @@
       <c r="H3" s="4" t="inlineStr"/>
       <c r="I3" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="4">
+    <row r="4" ht="15" customHeight="1">
       <c r="A4" s="11" t="n">
         <v>400</v>
       </c>
@@ -849,7 +833,7 @@
       <c r="H4" s="4" t="inlineStr"/>
       <c r="I4" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="5">
+    <row r="5" ht="15" customHeight="1">
       <c r="A5" s="11" t="n">
         <v>500</v>
       </c>
@@ -862,7 +846,7 @@
       <c r="H5" s="4" t="inlineStr"/>
       <c r="I5" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="6">
+    <row r="6" ht="15" customHeight="1">
       <c r="A6" s="11" t="n">
         <v>600</v>
       </c>
@@ -875,7 +859,7 @@
       <c r="H6" s="4" t="inlineStr"/>
       <c r="I6" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="7">
+    <row r="7" ht="15" customHeight="1">
       <c r="A7" s="11" t="n">
         <v>700</v>
       </c>
@@ -888,7 +872,7 @@
       <c r="H7" s="4" t="inlineStr"/>
       <c r="I7" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="8">
+    <row r="8" ht="15" customHeight="1">
       <c r="A8" s="11" t="n">
         <v>800</v>
       </c>
@@ -901,7 +885,7 @@
       <c r="H8" s="4" t="inlineStr"/>
       <c r="I8" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="9">
+    <row r="9" ht="15" customHeight="1">
       <c r="A9" s="11" t="n">
         <v>900</v>
       </c>
@@ -914,7 +898,7 @@
       <c r="H9" s="4" t="inlineStr"/>
       <c r="I9" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="10">
+    <row r="10" ht="15" customHeight="1">
       <c r="A10" s="11" t="n">
         <v>1000</v>
       </c>
@@ -927,7 +911,7 @@
       <c r="H10" s="4" t="inlineStr"/>
       <c r="I10" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="11">
+    <row r="11" ht="15" customHeight="1">
       <c r="A11" s="11" t="n">
         <v>1100</v>
       </c>
@@ -940,7 +924,7 @@
       <c r="H11" s="4" t="inlineStr"/>
       <c r="I11" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="12">
+    <row r="12" ht="15" customHeight="1">
       <c r="A12" s="11" t="n">
         <v>1200</v>
       </c>
@@ -953,7 +937,7 @@
       <c r="H12" s="4" t="inlineStr"/>
       <c r="I12" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="13">
+    <row r="13" ht="15" customHeight="1">
       <c r="A13" s="4" t="inlineStr"/>
       <c r="B13" s="4" t="inlineStr"/>
       <c r="C13" s="4" t="inlineStr"/>
@@ -964,7 +948,7 @@
       <c r="H13" s="4" t="inlineStr"/>
       <c r="I13" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="14">
+    <row r="14" ht="15" customHeight="1">
       <c r="A14" s="4" t="inlineStr"/>
       <c r="B14" s="4" t="inlineStr"/>
       <c r="C14" s="4" t="inlineStr"/>
@@ -975,7 +959,7 @@
       <c r="H14" s="4" t="inlineStr"/>
       <c r="I14" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="15">
+    <row r="15" ht="15" customHeight="1">
       <c r="A15" s="4" t="inlineStr"/>
       <c r="B15" s="4" t="inlineStr"/>
       <c r="C15" s="4" t="inlineStr"/>
@@ -986,7 +970,7 @@
       <c r="H15" s="4" t="inlineStr"/>
       <c r="I15" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="16">
+    <row r="16" ht="15" customHeight="1">
       <c r="A16" s="4" t="inlineStr"/>
       <c r="B16" s="4" t="inlineStr"/>
       <c r="C16" s="4" t="inlineStr"/>
@@ -997,7 +981,7 @@
       <c r="H16" s="4" t="inlineStr"/>
       <c r="I16" s="4" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="17">
+    <row r="17" ht="15" customHeight="1">
       <c r="A17" s="4" t="inlineStr"/>
       <c r="B17" s="4" t="inlineStr"/>
       <c r="C17" s="4" t="inlineStr"/>
@@ -1009,7 +993,7 @@
       <c r="I17" s="4" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1028,47 +1012,47 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="12.13857142857143"/>
-    <col customWidth="1" max="2" min="2" width="12.13857142857143"/>
+    <col width="12.13857142857143" customWidth="1" min="1" max="1"/>
+    <col width="12.13857142857143" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15" r="1">
-      <c r="A1" s="20" t="inlineStr">
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" s="13" t="inlineStr">
         <is>
           <t>RED</t>
         </is>
       </c>
-      <c r="B1" s="21" t="inlineStr">
+      <c r="B1" s="14" t="inlineStr">
         <is>
           <t>RED</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="2">
-      <c r="A2" s="22" t="inlineStr">
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" s="15" t="inlineStr">
         <is>
           <t>GREEN</t>
         </is>
       </c>
-      <c r="B2" s="23" t="inlineStr">
+      <c r="B2" s="16" t="inlineStr">
         <is>
           <t>GREEN</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="3">
-      <c r="A3" s="24" t="inlineStr">
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" s="17" t="inlineStr">
         <is>
           <t>BLUE</t>
         </is>
       </c>
-      <c r="B3" s="25" t="inlineStr">
+      <c r="B3" s="18" t="inlineStr">
         <is>
           <t>BLUE</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>